--- a/Docs/Historia de Usuario.xlsx
+++ b/Docs/Historia de Usuario.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TutoApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TutoApp\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1" xr2:uid="{C2DCA1DD-5FF3-4C8D-8AD2-5A5BF1D2B1E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{C2DCA1DD-5FF3-4C8D-8AD2-5A5BF1D2B1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Responder" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Rol</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Resultado / Comportamiento esperado</t>
   </si>
   <si>
-    <t>Necesito [Descripción de la funcionalidad]</t>
-  </si>
-  <si>
-    <t>Con la finalidad de  [Descripción razón o resultado]</t>
-  </si>
-  <si>
     <t>En caso que [contexto] y/ o [contexto]</t>
   </si>
   <si>
@@ -115,6 +109,81 @@
   </si>
   <si>
     <t>El sistema mostrará las categorías en orden alfabetico.</t>
+  </si>
+  <si>
+    <t>Necesito ver un listado de los cursos de matematica en los cuales me puedan ayudar</t>
+  </si>
+  <si>
+    <t>Con la finalidad de poder escoger el curso en el cual necesito ayuda</t>
+  </si>
+  <si>
+    <t>En caso que el curso tenga tutores disponibles</t>
+  </si>
+  <si>
+    <t>En caso que el curso no tenga tutores disponibles</t>
+  </si>
+  <si>
+    <t>cuando se depliegue el listado de cursos</t>
+  </si>
+  <si>
+    <t>la aplicación mostrar entre parentesis el numero de tutores disponibles</t>
+  </si>
+  <si>
+    <t>la aplicación mostrar entre parentesis el numero 0</t>
+  </si>
+  <si>
+    <t>En caso que no exista un curso de matematica</t>
+  </si>
+  <si>
+    <t>cuando se este mostrando todos los cursos</t>
+  </si>
+  <si>
+    <t>la aplicación tendra un boton con el simbolo "+" o el texto "Solicitar nuevo curso"</t>
+  </si>
+  <si>
+    <t>foto</t>
+  </si>
+  <si>
+    <t>horario</t>
+  </si>
+  <si>
+    <t>materiales necesarios</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo </t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>tema</t>
+  </si>
+  <si>
+    <t>boton para seleccionar</t>
+  </si>
+  <si>
+    <t>Necesito ver un listado de docentes que estan disponibles en cada curso</t>
+  </si>
+  <si>
+    <t>Con la finalidad de escoger un tutor</t>
+  </si>
+  <si>
+    <t>cuando se depliegue el listado de docentes</t>
+  </si>
+  <si>
+    <t>la aplicación mostrar informacion (nombre, foto,tema,tipo(docente,estudiante), escuela) de cada docente</t>
+  </si>
+  <si>
+    <t>enviar mensaje al grupo</t>
+  </si>
+  <si>
+    <t>lugar</t>
+  </si>
+  <si>
+    <t>sin telefono</t>
   </si>
 </sst>
 </file>
@@ -234,38 +303,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -583,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EA3166-4964-4385-A15A-E53E57E1FD9D}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +669,7 @@
     <col min="7" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,155 +692,191 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3">
+      <c r="C3" s="11"/>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3">
+      <c r="C4" s="11"/>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -781,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D204D1B-95D3-40B2-A55C-9A5D18BB09EE}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,46 +896,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -863,80 +968,80 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
